--- a/chordGT/trans_chord_k545.xlsx
+++ b/chordGT/trans_chord_k545.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="trans_chord_k545" sheetId="1" r:id="rId1"/>
